--- a/Euro2020.xlsx
+++ b/Euro2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DT\Euro2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76e71e4ceafec3cf/Image U/Sport-Events/Fussball/Euro2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_3E1D291F1243F396DB1F5DD4E1803A8AFE8EBF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4A556B-3552-4365-B9B9-D67F73EE1CD2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="helper" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="KO-Phase" sheetId="3" r:id="rId4"/>
     <sheet name="Tore" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -675,7 +676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-C07]dddd\,\ dd/\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C07]dddd\,\ dd/\ mmmm\ yyyy\ \ \ \-\ \ \ hh\ &quot;Uhr&quot;;@"/>
@@ -2479,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -3525,7 +3526,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:E12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E12">
     <sortCondition ref="D2"/>
   </sortState>
   <mergeCells count="4">
@@ -3540,7 +3541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3639,11 +3640,11 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="str">
         <f ca="1">Gruppenphase!AP26</f>
-        <v>A4</v>
+        <v>D2</v>
       </c>
       <c r="I3" s="9" t="str">
         <f ca="1">VLOOKUP(H3,helper!$G$2:$H$25,2)</f>
-        <v>Schweiz</v>
+        <v>Kroatien</v>
       </c>
       <c r="J3" s="9">
         <f ca="1">VLOOKUP($H3,Gruppenphase!$AD$1:$AL$24,2)</f>
@@ -3655,7 +3656,7 @@
       </c>
       <c r="L3" s="95">
         <f ca="1">VLOOKUP($H3,Gruppenphase!$AD$1:$AL$24,8)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M3" s="9">
         <f ca="1">VLOOKUP($H3,Gruppenphase!$AD$1:$AL$24,6)</f>
@@ -3692,19 +3693,19 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="str">
         <f ca="1">Gruppenphase!AP27</f>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="I4" s="9" t="str">
         <f ca="1">VLOOKUP(H4,helper!$G$2:$H$25,2)</f>
-        <v>Deutschland</v>
+        <v>Portugal</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($H4,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($H4,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="95">
         <f ca="1">VLOOKUP($H4,Gruppenphase!$AD$1:$AL$24,8)</f>
@@ -3712,7 +3713,7 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($H4,Gruppenphase!$AD$1:$AL$24,6)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N4" s="101" t="str">
         <f ca="1">A9</f>
@@ -3745,11 +3746,11 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="str">
         <f ca="1">Gruppenphase!AP28</f>
-        <v>C2</v>
+        <v>A4</v>
       </c>
       <c r="I5" s="9" t="str">
         <f ca="1">VLOOKUP(H5,helper!$G$2:$H$25,2)</f>
-        <v>Ukraine</v>
+        <v>Schweiz</v>
       </c>
       <c r="J5" s="9">
         <f ca="1">VLOOKUP($H5,Gruppenphase!$AD$1:$AL$24,2)</f>
@@ -3757,7 +3758,7 @@
       </c>
       <c r="K5" s="9">
         <f ca="1">VLOOKUP($H5,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="95">
         <f ca="1">VLOOKUP($H5,Gruppenphase!$AD$1:$AL$24,8)</f>
@@ -3798,11 +3799,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="str">
         <f ca="1">Gruppenphase!AP29</f>
-        <v>B2</v>
+        <v>C2</v>
       </c>
       <c r="I6" s="9" t="str">
         <f ca="1">VLOOKUP(H6,helper!$G$2:$H$25,2)</f>
-        <v>Finnland</v>
+        <v>Ukraine</v>
       </c>
       <c r="J6" s="9">
         <f ca="1">VLOOKUP($H6,Gruppenphase!$AD$1:$AL$24,2)</f>
@@ -3814,11 +3815,11 @@
       </c>
       <c r="L6" s="95">
         <f ca="1">VLOOKUP($H6,Gruppenphase!$AD$1:$AL$24,8)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M6" s="9">
         <f ca="1">VLOOKUP($H6,Gruppenphase!$AD$1:$AL$24,6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" s="101" t="str">
         <f ca="1">A17</f>
@@ -3851,23 +3852,23 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="str">
         <f ca="1">Gruppenphase!AP30</f>
-        <v>E1</v>
+        <v>B2</v>
       </c>
       <c r="I7" s="9" t="str">
         <f ca="1">VLOOKUP(H7,helper!$G$2:$H$25,2)</f>
-        <v>Spanien</v>
+        <v>Finnland</v>
       </c>
       <c r="J7" s="9">
         <f ca="1">VLOOKUP($H7,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="9">
         <f ca="1">VLOOKUP($H7,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="95">
         <f ca="1">VLOOKUP($H7,Gruppenphase!$AD$1:$AL$24,8)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M7" s="9">
         <f ca="1">VLOOKUP($H7,Gruppenphase!$AD$1:$AL$24,6)</f>
@@ -3875,7 +3876,7 @@
       </c>
       <c r="N7" s="101" t="str">
         <f ca="1">A21</f>
-        <v>E1</v>
+        <v>E4</v>
       </c>
       <c r="O7" s="97"/>
     </row>
@@ -3904,31 +3905,31 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="str">
         <f ca="1">Gruppenphase!AP31</f>
-        <v>D2</v>
+        <v>E4</v>
       </c>
       <c r="I8" s="9" t="str">
         <f ca="1">VLOOKUP(H8,helper!$G$2:$H$25,2)</f>
-        <v>Kroatien</v>
+        <v>Slowakei</v>
       </c>
       <c r="J8" s="9">
         <f ca="1">VLOOKUP($H8,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="9">
         <f ca="1">VLOOKUP($H8,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="95">
         <f ca="1">VLOOKUP($H8,Gruppenphase!$AD$1:$AL$24,8)</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="M8" s="9">
         <f ca="1">VLOOKUP($H8,Gruppenphase!$AD$1:$AL$24,6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="102" t="str">
         <f ca="1">A25</f>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="O8" s="98"/>
     </row>
@@ -4127,19 +4128,19 @@
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f ca="1">Gruppenphase!AP13</f>
-        <v>D4</v>
+        <v>D1</v>
       </c>
       <c r="B15" s="9" t="str">
         <f ca="1">VLOOKUP(A15,helper!$G$2:$H$25,2)</f>
-        <v>Tschechien</v>
+        <v>England</v>
       </c>
       <c r="C15" s="9">
         <f ca="1">VLOOKUP($A15,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="9">
         <f ca="1">VLOOKUP($A15,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15" s="101" t="str">
         <f>helper!G14</f>
@@ -4159,15 +4160,15 @@
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f ca="1">Gruppenphase!AP14</f>
-        <v>D1</v>
+        <v>D4</v>
       </c>
       <c r="B16" s="9" t="str">
         <f ca="1">VLOOKUP(A16,helper!$G$2:$H$25,2)</f>
-        <v>England</v>
+        <v>Tschechien</v>
       </c>
       <c r="C16" s="9">
         <f ca="1">VLOOKUP($A16,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="9">
         <f ca="1">VLOOKUP($A16,Gruppenphase!$AD$1:$AL$24,9)</f>
@@ -4199,11 +4200,11 @@
       </c>
       <c r="C17" s="9">
         <f ca="1">VLOOKUP($A17,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="9">
         <f ca="1">VLOOKUP($A17,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="101" t="str">
         <f>helper!G16</f>
@@ -4231,7 +4232,7 @@
       </c>
       <c r="C18" s="9">
         <f ca="1">VLOOKUP($A18,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="9">
         <f ca="1">VLOOKUP($A18,Gruppenphase!$AD$1:$AL$24,9)</f>
@@ -4263,11 +4264,11 @@
       </c>
       <c r="C19" s="9">
         <f ca="1">VLOOKUP($A19,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9">
         <f ca="1">VLOOKUP($A19,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="101" t="str">
         <f>helper!G18</f>
@@ -4287,19 +4288,19 @@
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f ca="1">Gruppenphase!AP18</f>
-        <v>E4</v>
+        <v>E1</v>
       </c>
       <c r="B20" s="9" t="str">
         <f ca="1">VLOOKUP(A20,helper!$G$2:$H$25,2)</f>
-        <v>Slowakei</v>
+        <v>Spanien</v>
       </c>
       <c r="C20" s="9">
         <f ca="1">VLOOKUP($A20,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9">
         <f ca="1">VLOOKUP($A20,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="101" t="str">
         <f>helper!G19</f>
@@ -4319,19 +4320,19 @@
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f ca="1">Gruppenphase!AP19</f>
-        <v>E1</v>
+        <v>E4</v>
       </c>
       <c r="B21" s="9" t="str">
         <f ca="1">VLOOKUP(A21,helper!$G$2:$H$25,2)</f>
-        <v>Spanien</v>
+        <v>Slowakei</v>
       </c>
       <c r="C21" s="9">
         <f ca="1">VLOOKUP($A21,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9">
         <f ca="1">VLOOKUP($A21,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="101" t="str">
         <f>helper!G20</f>
@@ -4359,7 +4360,7 @@
       </c>
       <c r="C22" s="9">
         <f ca="1">VLOOKUP($A22,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9">
         <f ca="1">VLOOKUP($A22,Gruppenphase!$AD$1:$AL$24,9)</f>
@@ -4391,11 +4392,11 @@
       </c>
       <c r="C23" s="9">
         <f ca="1">VLOOKUP($A23,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="9">
         <f ca="1">VLOOKUP($A23,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="101" t="str">
         <f>helper!G22</f>
@@ -4415,19 +4416,19 @@
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
         <f ca="1">Gruppenphase!AP22</f>
-        <v>F2</v>
+        <v>F4</v>
       </c>
       <c r="B24" s="9" t="str">
         <f ca="1">VLOOKUP(A24,helper!$G$2:$H$25,2)</f>
-        <v>Portugal</v>
+        <v>Deutschland</v>
       </c>
       <c r="C24" s="9">
         <f ca="1">VLOOKUP($A24,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="9">
         <f ca="1">VLOOKUP($A24,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="101" t="str">
         <f>helper!G23</f>
@@ -4447,19 +4448,19 @@
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f ca="1">Gruppenphase!AP23</f>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="B25" s="9" t="str">
         <f ca="1">VLOOKUP(A25,helper!$G$2:$H$25,2)</f>
-        <v>Deutschland</v>
+        <v>Portugal</v>
       </c>
       <c r="C25" s="9">
         <f ca="1">VLOOKUP($A25,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9">
         <f ca="1">VLOOKUP($A25,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="101" t="str">
         <f>helper!G24</f>
@@ -4487,11 +4488,11 @@
       </c>
       <c r="C26" s="9">
         <f ca="1">VLOOKUP($A26,Gruppenphase!$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9">
         <f ca="1">VLOOKUP($A26,Gruppenphase!$AD$1:$AL$24,9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="102" t="str">
         <f>helper!G25</f>
@@ -4531,12 +4532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:CB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4556,8 +4557,8 @@
     <col min="15" max="36" width="3.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="37" max="38" width="3.7109375" style="13" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="7.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="44" width="3.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3.7109375" style="1" customWidth="1"/>
+    <col min="40" max="43" width="3.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="45" width="3.7109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="17.7109375" style="1" customWidth="1"/>
     <col min="47" max="50" width="3.7109375" style="1" customWidth="1"/>
     <col min="51" max="51" width="0.5703125" style="1" customWidth="1"/>
@@ -5330,7 +5331,7 @@
       </c>
       <c r="BX4" s="157" t="str">
         <f ca="1">BI26</f>
-        <v>Tschechien ᵛ</v>
+        <v>England</v>
       </c>
     </row>
     <row r="5" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5525,7 +5526,7 @@
       </c>
       <c r="BX5" s="157" t="str">
         <f ca="1">AT33</f>
-        <v>Schweden ᵛ</v>
+        <v>Schweden</v>
       </c>
     </row>
     <row r="6" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,7 +5721,7 @@
       </c>
       <c r="BX6" s="157" t="str">
         <f ca="1">BI33</f>
-        <v>Frankreich ᵛ</v>
+        <v>Frankreich</v>
       </c>
     </row>
     <row r="7" spans="1:76" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5862,8 +5863,8 @@
         <v>9</v>
       </c>
       <c r="AM7" s="85">
-        <f>(AL7+'tie breaker'!F9/10)*100000+(50+AK7)*1000+AI7*10+5-RIGHT(AD7,1)</f>
-        <v>956072</v>
+        <f>(AL7+'tie breaker'!F9/10)*100000+(50+AK7)*1000+(10-AJ7)*10+5-RIGHT(AD7,1)</f>
+        <v>956092</v>
       </c>
       <c r="AN7" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -6054,8 +6055,8 @@
         <v>3</v>
       </c>
       <c r="AM8" s="85">
-        <f>(AL8+'tie breaker'!F10/10)*100000+(50+AK8)*1000+AI8*10+5-RIGHT(AD8,1)</f>
-        <v>345021</v>
+        <f>(AL8+'tie breaker'!F10/10)*100000+(50+AK8)*1000+(10-AJ8)*10+5-RIGHT(AD8,1)</f>
+        <v>345031</v>
       </c>
       <c r="AN8" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -6248,7 +6249,7 @@
         <v>9</v>
       </c>
       <c r="AM9" s="85">
-        <f>(AL9+'tie breaker'!F11/10)*100000+(50+AK9)*1000+AI9*10+5-RIGHT(AD9,1)</f>
+        <f>(AL9+'tie breaker'!F11/10)*100000+(50+AK9)*1000+(10-AJ9)*10+5-RIGHT(AD9,1)</f>
         <v>956084</v>
       </c>
       <c r="AN9" s="85">
@@ -6459,8 +6460,8 @@
         <v>3</v>
       </c>
       <c r="AM10" s="85">
-        <f>(AL10+'tie breaker'!F12/10)*100000+(50+AK10)*1000+AI10*10+5-RIGHT(AD10,1)</f>
-        <v>349043</v>
+        <f>(AL10+'tie breaker'!F12/10)*100000+(50+AK10)*1000+(10-AJ10)*10+5-RIGHT(AD10,1)</f>
+        <v>349053</v>
       </c>
       <c r="AN10" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -6480,11 +6481,11 @@
       </c>
       <c r="AS10" s="21" t="str">
         <f ca="1">AP26</f>
-        <v>A4</v>
+        <v>D2</v>
       </c>
       <c r="AT10" s="109" t="str">
         <f ca="1">VLOOKUP(AS10,helper!$G$2:$I$25,2)&amp;IF(SUM($AU$10:$AU$15)=18,"",helper!$U$2)</f>
-        <v>Schweiz ᵛ</v>
+        <v>Kroatien</v>
       </c>
       <c r="AU10" s="110">
         <f t="shared" ref="AU10:AU15" ca="1" si="23">VLOOKUP($AS10,$AD$1:$AL$24,2)</f>
@@ -6512,12 +6513,12 @@
       </c>
       <c r="BB10" s="110">
         <f t="shared" ref="BB10:BB15" ca="1" si="28">VLOOKUP($AS10,$AD$1:$AL$24,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC10" s="111"/>
       <c r="BD10" s="112">
         <f t="shared" ref="BD10:BD15" ca="1" si="29">VLOOKUP($AS10,$AD$1:$AL$24,8)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="114"/>
       <c r="BF10" s="113">
@@ -6544,7 +6545,7 @@
       </c>
       <c r="BX10" s="157" t="str">
         <f ca="1">BI27</f>
-        <v>England ᵛ</v>
+        <v>Tschechien</v>
       </c>
     </row>
     <row r="11" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6686,8 +6687,8 @@
         <v>6</v>
       </c>
       <c r="AM11" s="85">
-        <f>(AL11+'tie breaker'!F13/10)*100000+(50+AK11)*1000+AI11*10+5-RIGHT(AD11,1)</f>
-        <v>651042</v>
+        <f>(AL11+'tie breaker'!F13/10)*100000+(50+AK11)*1000+(10-AJ11)*10+5-RIGHT(AD11,1)</f>
+        <v>651072</v>
       </c>
       <c r="AN11" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -6704,15 +6705,15 @@
       <c r="AQ11" s="85"/>
       <c r="AS11" s="21" t="str">
         <f t="shared" ref="AS11:AS15" ca="1" si="31">AP27</f>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="AT11" s="109" t="str">
         <f ca="1">VLOOKUP(AS11,helper!$G$2:$I$25,2)&amp;IF(SUM($AU$10:$AU$15)=18,"",helper!$U$2)</f>
-        <v>Deutschland ᵛ</v>
+        <v>Portugal</v>
       </c>
       <c r="AU11" s="110">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV11" s="110">
         <f t="shared" ca="1" si="24"/>
@@ -6720,7 +6721,7 @@
       </c>
       <c r="AW11" s="110">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="110">
         <f t="shared" ca="1" si="26"/>
@@ -6729,14 +6730,14 @@
       <c r="AY11" s="111"/>
       <c r="AZ11" s="110">
         <f t="shared" ca="1" si="27"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA11" s="110" t="s">
         <v>8</v>
       </c>
       <c r="BB11" s="110">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC11" s="111"/>
       <c r="BD11" s="112">
@@ -6746,7 +6747,7 @@
       <c r="BE11" s="114"/>
       <c r="BF11" s="113">
         <f t="shared" ca="1" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG11" s="69"/>
       <c r="BH11" s="69"/>
@@ -6768,7 +6769,7 @@
       </c>
       <c r="BX11" s="157" t="str">
         <f ca="1">AT34</f>
-        <v>Slowakei ᵛ</v>
+        <v>Spanien</v>
       </c>
     </row>
     <row r="12" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6910,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="85">
-        <f>(AL12+'tie breaker'!F14/10)*100000+(50+AK12)*1000+AI12*10+5-RIGHT(AD12,1)</f>
+        <f>(AL12+'tie breaker'!F14/10)*100000+(50+AK12)*1000+(10-AJ12)*10+5-RIGHT(AD12,1)</f>
         <v>44021</v>
       </c>
       <c r="AN12" s="85">
@@ -6928,11 +6929,11 @@
       <c r="AQ12" s="85"/>
       <c r="AS12" s="22" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>C2</v>
+        <v>A4</v>
       </c>
       <c r="AT12" s="109" t="str">
         <f ca="1">VLOOKUP(AS12,helper!$G$2:$I$25,2)&amp;IF(SUM($AU$10:$AU$15)=18,"",helper!$U$2)</f>
-        <v>Ukraine ᵛ</v>
+        <v>Schweiz</v>
       </c>
       <c r="AU12" s="110">
         <f t="shared" ca="1" si="23"/>
@@ -6944,11 +6945,11 @@
       </c>
       <c r="AW12" s="110">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="110">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="111"/>
       <c r="AZ12" s="110">
@@ -6970,7 +6971,7 @@
       <c r="BE12" s="114"/>
       <c r="BF12" s="113">
         <f t="shared" ca="1" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG12" s="69"/>
       <c r="BH12" s="69"/>
@@ -6992,7 +6993,7 @@
       </c>
       <c r="BX12" s="157" t="str">
         <f ca="1">BI34</f>
-        <v>Portugal ᵛ</v>
+        <v>Deutschland</v>
       </c>
     </row>
     <row r="13" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7103,11 +7104,11 @@
       </c>
       <c r="AE13" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG13" s="6">
         <f t="shared" si="2"/>
@@ -7119,7 +7120,7 @@
       </c>
       <c r="AI13" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="5"/>
@@ -7127,39 +7128,39 @@
       </c>
       <c r="AK13" s="85">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="6">
         <f>SUMPRODUCT(AF13:AH13,{3,1,0})</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM13" s="85">
-        <f>(AL13+'tie breaker'!F15/10)*100000+(50+AK13)*1000+AI13*10+5-RIGHT(AD13,1)</f>
-        <v>451014</v>
+        <f>(AL13+'tie breaker'!F15/10)*100000+(50+AK13)*1000+(10-AJ13)*10+5-RIGHT(AD13,1)</f>
+        <v>752104</v>
       </c>
       <c r="AN13" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="85">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="85" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>D4</v>
+        <v>D1</v>
       </c>
       <c r="AQ13" s="85" t="str">
         <f ca="1">AP13</f>
-        <v>D4</v>
+        <v>D1</v>
       </c>
       <c r="AS13" s="21" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>B2</v>
+        <v>C2</v>
       </c>
       <c r="AT13" s="109" t="str">
         <f ca="1">VLOOKUP(AS13,helper!$G$2:$I$25,2)&amp;IF(SUM($AU$10:$AU$15)=18,"",helper!$U$2)</f>
-        <v>Finnland ᵛ</v>
+        <v>Ukraine</v>
       </c>
       <c r="AU13" s="110">
         <f t="shared" ca="1" si="23"/>
@@ -7180,19 +7181,19 @@
       <c r="AY13" s="111"/>
       <c r="AZ13" s="110">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA13" s="110" t="s">
         <v>8</v>
       </c>
       <c r="BB13" s="110">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC13" s="111"/>
       <c r="BD13" s="112">
         <f t="shared" ca="1" si="29"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BE13" s="114"/>
       <c r="BF13" s="113">
@@ -7219,7 +7220,7 @@
       </c>
       <c r="BX13" s="157" t="str">
         <f ca="1">BX24</f>
-        <v>Schweiz ᵛ</v>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="14" spans="1:76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7330,11 +7331,11 @@
       </c>
       <c r="AE14" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="6">
         <f t="shared" si="2"/>
@@ -7346,23 +7347,23 @@
       </c>
       <c r="AI14" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK14" s="85">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="6">
         <f>SUMPRODUCT(AF14:AH14,{3,1,0})</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM14" s="85">
-        <f>(AL14+'tie breaker'!F16/10)*100000+(50+AK14)*1000+AI14*10+5-RIGHT(AD14,1)</f>
-        <v>149013</v>
+        <f>(AL14+'tie breaker'!F16/10)*100000+(50+AK14)*1000+(10-AJ14)*10+5-RIGHT(AD14,1)</f>
+        <v>451073</v>
       </c>
       <c r="AN14" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -7370,39 +7371,39 @@
       </c>
       <c r="AO14" s="85">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP14" s="85" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>D1</v>
+        <v>D4</v>
       </c>
       <c r="AQ14" s="85" t="str">
         <f ca="1">AP14</f>
-        <v>D1</v>
+        <v>D4</v>
       </c>
       <c r="AS14" s="22" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>E1</v>
+        <v>B2</v>
       </c>
       <c r="AT14" s="115" t="str">
         <f ca="1">VLOOKUP(AS14,helper!$G$2:$I$25,2)&amp;IF(SUM($AU$10:$AU$15)=18,"",helper!$U$2)</f>
-        <v>Spanien ᵛ</v>
+        <v>Finnland</v>
       </c>
       <c r="AU14" s="116">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" s="116">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="116">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="116">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="117"/>
       <c r="AZ14" s="116">
@@ -7414,17 +7415,17 @@
       </c>
       <c r="BB14" s="116">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="117"/>
       <c r="BD14" s="118">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="BE14" s="119"/>
       <c r="BF14" s="125">
         <f t="shared" ca="1" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG14" s="69"/>
       <c r="BH14" s="69"/>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="BX14" s="157" t="str">
         <f t="shared" ref="BX14:BX16" ca="1" si="32">BX25</f>
-        <v>Deutschland ᵛ</v>
+        <v>Kroatien</v>
       </c>
     </row>
     <row r="15" spans="1:76" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7557,7 +7558,7 @@
       </c>
       <c r="AE15" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="1"/>
@@ -7569,27 +7570,27 @@
       </c>
       <c r="AH15" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="85">
         <f t="shared" si="21"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AL15" s="6">
         <f>SUMPRODUCT(AF15:AH15,{3,1,0})</f>
         <v>1</v>
       </c>
       <c r="AM15" s="85">
-        <f>(AL15+'tie breaker'!F17/10)*100000+(50+AK15)*1000+AI15*10+5-RIGHT(AD15,1)</f>
-        <v>148002</v>
+        <f>(AL15+'tie breaker'!F17/10)*100000+(50+AK15)*1000+(10-AJ15)*10+5-RIGHT(AD15,1)</f>
+        <v>146052</v>
       </c>
       <c r="AN15" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -7606,49 +7607,49 @@
       <c r="AQ15" s="85"/>
       <c r="AS15" s="23" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>D2</v>
+        <v>E4</v>
       </c>
       <c r="AT15" s="120" t="str">
         <f ca="1">VLOOKUP(AS15,helper!$G$2:$I$25,2)&amp;IF(SUM($AU$10:$AU$15)=18,"",helper!$U$2)</f>
-        <v>Kroatien ᵛ</v>
+        <v>Slowakei</v>
       </c>
       <c r="AU15" s="121">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV15" s="121">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="121">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="121">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="122"/>
       <c r="AZ15" s="121">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA15" s="121" t="s">
         <v>8</v>
       </c>
       <c r="BB15" s="121">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC15" s="122"/>
       <c r="BD15" s="123">
         <f t="shared" ca="1" si="29"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="BE15" s="124"/>
       <c r="BF15" s="126">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG15" s="69"/>
       <c r="BH15" s="69"/>
@@ -7670,7 +7671,7 @@
       </c>
       <c r="BX15" s="157" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Finnland ᵛ</v>
+        <v>Ukraine</v>
       </c>
     </row>
     <row r="16" spans="1:76" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7781,7 +7782,7 @@
       </c>
       <c r="AE16" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" s="6">
         <f t="shared" si="1"/>
@@ -7793,7 +7794,7 @@
       </c>
       <c r="AH16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="6">
         <f t="shared" si="4"/>
@@ -7801,23 +7802,23 @@
       </c>
       <c r="AJ16" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="85">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="6">
         <f>SUMPRODUCT(AF16:AH16,{3,1,0})</f>
         <v>4</v>
       </c>
       <c r="AM16" s="85">
-        <f>(AL16+'tie breaker'!F18/10)*100000+(50+AK16)*1000+AI16*10+5-RIGHT(AD16,1)</f>
-        <v>452031</v>
+        <f>(AL16+'tie breaker'!F18/10)*100000+(50+AK16)*1000+(10-AJ16)*10+5-RIGHT(AD16,1)</f>
+        <v>451081</v>
       </c>
       <c r="AN16" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16" s="85">
         <f t="shared" ca="1" si="7"/>
@@ -7833,7 +7834,7 @@
       </c>
       <c r="BX16" s="157" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>Ukraine ᵛ</v>
+        <v>Schweiz</v>
       </c>
     </row>
     <row r="17" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -7944,11 +7945,11 @@
       </c>
       <c r="AE17" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="6">
         <f t="shared" si="2"/>
@@ -7960,7 +7961,7 @@
       </c>
       <c r="AI17" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="5"/>
@@ -7968,19 +7969,19 @@
       </c>
       <c r="AK17" s="85">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="6">
         <f>SUMPRODUCT(AF17:AH17,{3,1,0})</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM17" s="85">
-        <f>(AL17+'tie breaker'!F19/10)*100000+(50+AK17)*1000+AI17*10+5-RIGHT(AD17,1)</f>
-        <v>250014</v>
+        <f>(AL17+'tie breaker'!F19/10)*100000+(50+AK17)*1000+(10-AJ17)*10+5-RIGHT(AD17,1)</f>
+        <v>555094</v>
       </c>
       <c r="AN17" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="85">
         <f t="shared" ca="1" si="7"/>
@@ -8135,11 +8136,11 @@
       </c>
       <c r="AE18" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG18" s="6">
         <f t="shared" si="2"/>
@@ -8151,23 +8152,23 @@
       </c>
       <c r="AI18" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="85">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="6">
         <f>SUMPRODUCT(AF18:AH18,{3,1,0})</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM18" s="85">
-        <f>(AL18+'tie breaker'!F20/10)*100000+(50+AK18)*1000+AI18*10+5-RIGHT(AD18,1)</f>
-        <v>451013</v>
+        <f>(AL18+'tie breaker'!F20/10)*100000+(50+AK18)*1000+(10-AJ18)*10+5-RIGHT(AD18,1)</f>
+        <v>752083</v>
       </c>
       <c r="AN18" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -8175,15 +8176,15 @@
       </c>
       <c r="AO18" s="85">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="85" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>E4</v>
+        <v>E1</v>
       </c>
       <c r="AQ18" s="85" t="str">
         <f ca="1">AP18</f>
-        <v>E4</v>
+        <v>E1</v>
       </c>
       <c r="AS18" s="25"/>
       <c r="AT18" s="26"/>
@@ -8247,19 +8248,19 @@
       </c>
       <c r="BW18" s="157" t="str">
         <f ca="1">LEFT(AS10,1)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="BX18" s="157" t="str">
         <f ca="1">AT10</f>
-        <v>Schweiz ᵛ</v>
+        <v>Kroatien</v>
       </c>
       <c r="BY18" s="157">
         <f ca="1">CODE(BW18)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="BZ18" s="157">
         <f ca="1">RANK(BY18,$BY$18:$BY$21,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CA18" s="157" t="str">
         <f ca="1">OFFSET($BW$17,BZ18,)</f>
@@ -8267,7 +8268,7 @@
       </c>
       <c r="CB18" s="157" t="str">
         <f ca="1">OFFSET($BX$17,BZ18,)</f>
-        <v>Schweiz ᵛ</v>
+        <v>Schweiz</v>
       </c>
     </row>
     <row r="19" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -8378,7 +8379,7 @@
       </c>
       <c r="AE19" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF19" s="6">
         <f t="shared" si="1"/>
@@ -8390,27 +8391,27 @@
       </c>
       <c r="AH19" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK19" s="85">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL19" s="6">
         <f>SUMPRODUCT(AF19:AH19,{3,1,0})</f>
         <v>1</v>
       </c>
       <c r="AM19" s="85">
-        <f>(AL19+'tie breaker'!F21/10)*100000+(50+AK19)*1000+AI19*10+5-RIGHT(AD19,1)</f>
-        <v>149022</v>
+        <f>(AL19+'tie breaker'!F21/10)*100000+(50+AK19)*1000+(10-AJ19)*10+5-RIGHT(AD19,1)</f>
+        <v>148042</v>
       </c>
       <c r="AN19" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -8418,11 +8419,11 @@
       </c>
       <c r="AO19" s="85">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP19" s="85" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>E1</v>
+        <v>E4</v>
       </c>
       <c r="AQ19" s="85"/>
       <c r="AS19" s="21" t="str">
@@ -8523,7 +8524,7 @@
       </c>
       <c r="BX19" s="157" t="str">
         <f t="shared" ref="BX19:BX21" ca="1" si="34">AT11</f>
-        <v>Deutschland ᵛ</v>
+        <v>Portugal</v>
       </c>
       <c r="BY19" s="157">
         <f ca="1">CODE(BW19)</f>
@@ -8535,11 +8536,11 @@
       </c>
       <c r="CA19" s="157" t="str">
         <f t="shared" ref="CA19:CA21" ca="1" si="35">OFFSET($BW$17,BZ19,)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="CB19" s="157" t="str">
         <f t="shared" ref="CB19:CB21" ca="1" si="36">OFFSET($BX$17,BZ19,)</f>
-        <v>Finnland ᵛ</v>
+        <v>Ukraine</v>
       </c>
     </row>
     <row r="20" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -8650,7 +8651,7 @@
       </c>
       <c r="AE20" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="1"/>
@@ -8662,7 +8663,7 @@
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="6">
         <f t="shared" si="4"/>
@@ -8670,23 +8671,23 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK20" s="85">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AL20" s="6">
         <f>SUMPRODUCT(AF20:AH20,{3,1,0})</f>
         <v>3</v>
       </c>
       <c r="AM20" s="85">
-        <f>(AL20+'tie breaker'!F22/10)*100000+(50+AK20)*1000+AI20*10+5-RIGHT(AD20,1)</f>
-        <v>350021</v>
+        <f>(AL20+'tie breaker'!F22/10)*100000+(50+AK20)*1000+(10-AJ20)*10+5-RIGHT(AD20,1)</f>
+        <v>345031</v>
       </c>
       <c r="AN20" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" s="85">
         <f t="shared" ca="1" si="7"/>
@@ -8791,27 +8792,27 @@
       </c>
       <c r="BW20" s="157" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="BX20" s="157" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>Ukraine ᵛ</v>
+        <v>Schweiz</v>
       </c>
       <c r="BY20" s="157">
         <f ca="1">CODE(BW20)</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BZ20" s="157">
         <f ca="1">RANK(BY20,$BY$18:$BY$21,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CA20" s="157" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="CB20" s="157" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>Ukraine ᵛ</v>
+        <v>Kroatien</v>
       </c>
     </row>
     <row r="21" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -8922,7 +8923,7 @@
       </c>
       <c r="AE21" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF21" s="6">
         <f t="shared" si="1"/>
@@ -8930,7 +8931,7 @@
       </c>
       <c r="AG21" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="6">
         <f t="shared" si="3"/>
@@ -8938,11 +8939,11 @@
       </c>
       <c r="AI21" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ21" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="85">
         <f t="shared" si="21"/>
@@ -8950,11 +8951,11 @@
       </c>
       <c r="AL21" s="6">
         <f>SUMPRODUCT(AF21:AH21,{3,1,0})</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" s="85">
-        <f>(AL21+'tie breaker'!F23/10)*100000+(50+AK21)*1000+AI21*10+5-RIGHT(AD21,1)</f>
-        <v>147014</v>
+        <f>(AL21+'tie breaker'!F23/10)*100000+(50+AK21)*1000+(10-AJ21)*10+5-RIGHT(AD21,1)</f>
+        <v>247044</v>
       </c>
       <c r="AN21" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -9066,15 +9067,15 @@
       </c>
       <c r="BW21" s="157" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="BX21" s="157" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v>Finnland ᵛ</v>
+        <v>Ukraine</v>
       </c>
       <c r="BY21" s="157">
         <f ca="1">CODE(BW21)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BZ21" s="157">
         <f ca="1">RANK(BY21,$BY$18:$BY$21,1)</f>
@@ -9086,7 +9087,7 @@
       </c>
       <c r="CB21" s="157" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>Deutschland ᵛ</v>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="22" spans="1:80" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9197,7 +9198,7 @@
       </c>
       <c r="AE22" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" s="6">
         <f t="shared" si="1"/>
@@ -9205,7 +9206,7 @@
       </c>
       <c r="AG22" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="6">
         <f t="shared" si="3"/>
@@ -9213,11 +9214,11 @@
       </c>
       <c r="AI22" s="6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="85">
         <f t="shared" si="21"/>
@@ -9225,27 +9226,27 @@
       </c>
       <c r="AL22" s="6">
         <f>SUMPRODUCT(AF22:AH22,{3,1,0})</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM22" s="85">
-        <f>(AL22+'tie breaker'!F24/10)*100000+(50+AK22)*1000+AI22*10+5-RIGHT(AD22,1)</f>
-        <v>351053</v>
+        <f>(AL22+'tie breaker'!F24/10)*100000+(50+AK22)*1000+(10-AJ22)*10+5-RIGHT(AD22,1)</f>
+        <v>451043</v>
       </c>
       <c r="AN22" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO22" s="85">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP22" s="85" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>F2</v>
+        <v>F4</v>
       </c>
       <c r="AQ22" s="85" t="str">
         <f ca="1">AP22</f>
-        <v>F2</v>
+        <v>F4</v>
       </c>
       <c r="AS22" s="23" t="str">
         <f ca="1">AP4</f>
@@ -9448,7 +9449,7 @@
       </c>
       <c r="AE23" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF23" s="6">
         <f t="shared" si="1"/>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="AG23" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH23" s="6">
         <f t="shared" si="3"/>
@@ -9464,11 +9465,11 @@
       </c>
       <c r="AI23" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ23" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK23" s="85">
         <f t="shared" si="21"/>
@@ -9476,11 +9477,11 @@
       </c>
       <c r="AL23" s="6">
         <f>SUMPRODUCT(AF23:AH23,{3,1,0})</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM23" s="85">
-        <f>(AL23+'tie breaker'!F25/10)*100000+(50+AK23)*1000+AI23*10+5-RIGHT(AD23,1)</f>
-        <v>451022</v>
+        <f>(AL23+'tie breaker'!F25/10)*100000+(50+AK23)*1000+(10-AJ23)*10+5-RIGHT(AD23,1)</f>
+        <v>551072</v>
       </c>
       <c r="AN23" s="85">
         <f t="shared" ca="1" si="6"/>
@@ -9488,32 +9489,32 @@
       </c>
       <c r="AO23" s="85">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP23" s="85" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="AQ23" s="85"/>
       <c r="BX23" s="157" t="str">
         <f ca="1">CA18&amp;CA19&amp;CA20&amp;CA21</f>
-        <v>ABCF</v>
+        <v>ACDF</v>
       </c>
       <c r="BY23" s="157" t="str">
         <f ca="1">VLOOKUP($BX$23,helper!$O$2:$S$16,COLUMN()-75)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="BZ23" s="157" t="str">
         <f ca="1">VLOOKUP($BX$23,helper!$O$2:$S$16,COLUMN()-75)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="CA23" s="157" t="str">
         <f ca="1">VLOOKUP($BX$23,helper!$O$2:$S$16,COLUMN()-75)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="CB23" s="157" t="str">
         <f ca="1">VLOOKUP($BX$23,helper!$O$2:$S$16,COLUMN()-75)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="24" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -9624,7 +9625,7 @@
       </c>
       <c r="AE24" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF24" s="6">
         <f t="shared" si="1"/>
@@ -9632,7 +9633,7 @@
       </c>
       <c r="AG24" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="6">
         <f t="shared" si="3"/>
@@ -9640,11 +9641,11 @@
       </c>
       <c r="AI24" s="6">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ24" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK24" s="85">
         <f t="shared" si="21"/>
@@ -9652,15 +9653,15 @@
       </c>
       <c r="AL24" s="6">
         <f>SUMPRODUCT(AF24:AH24,{3,1,0})</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM24" s="85">
-        <f>(AL24+'tie breaker'!F26/10)*100000+(50+AK24)*1000+AI24*10+5-RIGHT(AD24,1)</f>
-        <v>351041</v>
+        <f>(AL24+'tie breaker'!F26/10)*100000+(50+AK24)*1000+(10-AJ24)*10+5-RIGHT(AD24,1)</f>
+        <v>451051</v>
       </c>
       <c r="AN24" s="85">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO24" s="85">
         <f t="shared" ca="1" si="7"/>
@@ -9705,11 +9706,11 @@
       <c r="BU24" s="163"/>
       <c r="BW24" s="157" t="str">
         <f ca="1">BY23</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="BX24" s="157" t="str">
         <f ca="1">VLOOKUP(BW24,$CA$18:$CB$21,2)</f>
-        <v>Schweiz ᵛ</v>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="25" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -9886,11 +9887,11 @@
       </c>
       <c r="BW25" s="157" t="str">
         <f ca="1">BZ23</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="BX25" s="157" t="str">
         <f t="shared" ref="BX25:BX27" ca="1" si="37">VLOOKUP(BW25,$CA$18:$CB$21,2)</f>
-        <v>Deutschland ᵛ</v>
+        <v>Kroatien</v>
       </c>
     </row>
     <row r="26" spans="1:80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10013,15 +10014,15 @@
       </c>
       <c r="AN26" s="6">
         <f ca="1">_xlfn.RANK.EQ(AM26,$AM$26:$AM$31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO26" s="6">
         <f ca="1">IF(ISNA(MATCH(ROW()-25,$AN$26:$AN$31,0)),AO25+1,MATCH(ROW()-25,$AN$26:$AN$31,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP26" s="85" t="str">
         <f t="shared" ref="AP26:AP31" ca="1" si="39">INDEX($AL$26:$AL$31,AO26)</f>
-        <v>A4</v>
+        <v>D2</v>
       </c>
       <c r="AQ26" s="85" t="str">
         <f t="shared" ref="AQ26:AQ31" ca="1" si="40">IF(AN26&lt;5,AL26,"")</f>
@@ -10075,19 +10076,19 @@
       </c>
       <c r="BH26" s="21" t="str">
         <f ca="1">AP13</f>
-        <v>D4</v>
+        <v>D1</v>
       </c>
       <c r="BI26" s="24" t="str">
         <f ca="1">VLOOKUP(BH26,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$26:BJ$29)=12,"",helper!$U$2)</f>
-        <v>Tschechien ᵛ</v>
+        <v>England</v>
       </c>
       <c r="BJ26" s="74">
         <f ca="1">VLOOKUP($BH26,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK26" s="74">
         <f ca="1">VLOOKUP($BH26,$AD$1:$AL$24,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL26" s="74">
         <f ca="1">VLOOKUP($BH26,$AD$1:$AL$24,4)</f>
@@ -10100,14 +10101,14 @@
       <c r="BN26" s="88"/>
       <c r="BO26" s="74">
         <f ca="1">VLOOKUP($BH26,$AD$1:$AL$24,6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP26" s="74" t="s">
         <v>8</v>
       </c>
       <c r="BQ26" s="74">
         <f ca="1">VLOOKUP($BH26,$AD$1:$AL$24,7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR26" s="88"/>
       <c r="BS26" s="75">
@@ -10117,15 +10118,15 @@
       <c r="BT26" s="91"/>
       <c r="BU26" s="76">
         <f ca="1">VLOOKUP($BH26,$AD$1:$AL$24,9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BW26" s="157" t="str">
         <f ca="1">CA23</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="BX26" s="157" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>Finnland ᵛ</v>
+        <v>Ukraine</v>
       </c>
     </row>
     <row r="27" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -10248,7 +10249,7 @@
       </c>
       <c r="AN27" s="6">
         <f t="shared" ref="AN27:AN31" ca="1" si="41">_xlfn.RANK.EQ(AM27,$AM$26:$AM$31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" ref="AO27:AO31" ca="1" si="42">IF(ISNA(MATCH(ROW()-25,$AN$26:$AN$31,0)),AO26+1,MATCH(ROW()-25,$AN$26:$AN$31,0))</f>
@@ -10256,11 +10257,11 @@
       </c>
       <c r="AP27" s="85" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="AQ27" s="85" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>B2</v>
+        <v/>
       </c>
       <c r="AS27" s="21" t="str">
         <f ca="1">AP10</f>
@@ -10310,15 +10311,15 @@
       </c>
       <c r="BH27" s="21" t="str">
         <f ca="1">AP14</f>
-        <v>D1</v>
+        <v>D4</v>
       </c>
       <c r="BI27" s="24" t="str">
         <f ca="1">VLOOKUP(BH27,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$26:BJ$29)=12,"",helper!$U$2)</f>
-        <v>England ᵛ</v>
+        <v>Tschechien</v>
       </c>
       <c r="BJ27" s="74">
         <f ca="1">VLOOKUP($BH27,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK27" s="74">
         <f ca="1">VLOOKUP($BH27,$AD$1:$AL$24,3)</f>
@@ -10330,19 +10331,19 @@
       </c>
       <c r="BM27" s="74">
         <f ca="1">VLOOKUP($BH27,$AD$1:$AL$24,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN27" s="88"/>
       <c r="BO27" s="74">
         <f ca="1">VLOOKUP($BH27,$AD$1:$AL$24,6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP27" s="74" t="s">
         <v>8</v>
       </c>
       <c r="BQ27" s="74">
         <f ca="1">VLOOKUP($BH27,$AD$1:$AL$24,7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR27" s="88"/>
       <c r="BS27" s="75">
@@ -10356,11 +10357,11 @@
       </c>
       <c r="BW27" s="157" t="str">
         <f ca="1">CB23</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="BX27" s="157" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>Ukraine ᵛ</v>
+        <v>Schweiz</v>
       </c>
     </row>
     <row r="28" spans="1:80" ht="18.75" x14ac:dyDescent="0.25">
@@ -10479,19 +10480,19 @@
       </c>
       <c r="AM28" s="85">
         <f ca="1">INT((VLOOKUP(AL28,$AD$1:$AM$24,10)-VLOOKUP(AL28,'tie breaker'!E5:F28,2)*10000)/10)+'tie breaker'!O5*1000</f>
-        <v>34904</v>
+        <v>34905</v>
       </c>
       <c r="AN28" s="6">
         <f t="shared" ca="1" si="41"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP28" s="85" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>C2</v>
+        <v>A4</v>
       </c>
       <c r="AQ28" s="85" t="str">
         <f t="shared" ca="1" si="40"/>
@@ -10549,15 +10550,15 @@
       </c>
       <c r="BI28" s="32" t="str">
         <f ca="1">VLOOKUP(BH28,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$26:BJ$29)=12,"",helper!$U$2)</f>
-        <v>Kroatien ᵛ</v>
+        <v>Kroatien</v>
       </c>
       <c r="BJ28" s="72">
         <f ca="1">VLOOKUP($BH28,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK28" s="72">
         <f ca="1">VLOOKUP($BH28,$AD$1:$AL$24,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="72">
         <f ca="1">VLOOKUP($BH28,$AD$1:$AL$24,4)</f>
@@ -10570,24 +10571,24 @@
       <c r="BN28" s="89"/>
       <c r="BO28" s="72">
         <f ca="1">VLOOKUP($BH28,$AD$1:$AL$24,6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP28" s="72" t="s">
         <v>8</v>
       </c>
       <c r="BQ28" s="72">
         <f ca="1">VLOOKUP($BH28,$AD$1:$AL$24,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR28" s="89"/>
       <c r="BS28" s="73">
         <f ca="1">VLOOKUP($BH28,$AD$1:$AL$24,8)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BT28" s="92"/>
       <c r="BU28" s="86">
         <f ca="1">VLOOKUP($BH28,$AD$1:$AL$24,9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:80" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10706,23 +10707,23 @@
       </c>
       <c r="AM29" s="85">
         <f ca="1">INT((VLOOKUP(AL29,$AD$1:$AM$24,10)-VLOOKUP(AL29,'tie breaker'!E6:F29,2)*10000)/10)+'tie breaker'!O6*1000</f>
-        <v>14901</v>
+        <v>45107</v>
       </c>
       <c r="AN29" s="6">
         <f t="shared" ca="1" si="41"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP29" s="85" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>B2</v>
+        <v>C2</v>
       </c>
       <c r="AQ29" s="85" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v/>
+        <v>D2</v>
       </c>
       <c r="AS29" s="23" t="str">
         <f ca="1">AP12</f>
@@ -10776,11 +10777,11 @@
       </c>
       <c r="BI29" s="33" t="str">
         <f ca="1">VLOOKUP(BH29,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$26:BJ$29)=12,"",helper!$U$2)</f>
-        <v>Schottland ᵛ</v>
+        <v>Schottland</v>
       </c>
       <c r="BJ29" s="77">
         <f ca="1">VLOOKUP($BH29,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK29" s="77">
         <f ca="1">VLOOKUP($BH29,$AD$1:$AL$24,3)</f>
@@ -10792,24 +10793,24 @@
       </c>
       <c r="BM29" s="77">
         <f ca="1">VLOOKUP($BH29,$AD$1:$AL$24,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN29" s="90"/>
       <c r="BO29" s="77">
         <f ca="1">VLOOKUP($BH29,$AD$1:$AL$24,6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP29" s="77" t="s">
         <v>8</v>
       </c>
       <c r="BQ29" s="77">
         <f ca="1">VLOOKUP($BH29,$AD$1:$AL$24,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BR29" s="90"/>
       <c r="BS29" s="78">
         <f ca="1">VLOOKUP($BH29,$AD$1:$AL$24,8)</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="BT29" s="93"/>
       <c r="BU29" s="87">
@@ -10929,23 +10930,23 @@
       </c>
       <c r="AL30" s="6" t="str">
         <f ca="1">AP19</f>
-        <v>E1</v>
+        <v>E4</v>
       </c>
       <c r="AM30" s="85">
         <f ca="1">INT((VLOOKUP(AL30,$AD$1:$AM$24,10)-VLOOKUP(AL30,'tie breaker'!E7:F30,2)*10000)/10)+'tie breaker'!O7*1000</f>
-        <v>25001</v>
+        <v>34503</v>
       </c>
       <c r="AN30" s="6">
         <f t="shared" ca="1" si="41"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP30" s="85" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>E1</v>
+        <v>B2</v>
       </c>
       <c r="AQ30" s="85" t="str">
         <f t="shared" ca="1" si="40"/>
@@ -10980,11 +10981,15 @@
         <f>VLOOKUP(G31,helper!$K$2:$L$25,2)</f>
         <v>Kroatien</v>
       </c>
-      <c r="I31" s="156"/>
+      <c r="I31" s="156">
+        <v>3</v>
+      </c>
       <c r="J31" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="156"/>
+      <c r="K31" s="156">
+        <v>1</v>
+      </c>
       <c r="L31" s="155" t="str">
         <f>VLOOKUP(M31,helper!$K$2:$L$25,2)</f>
         <v>Schottland</v>
@@ -10999,11 +11004,11 @@
       </c>
       <c r="P31" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="11"/>
@@ -11015,11 +11020,11 @@
       </c>
       <c r="T31" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U31" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="7" t="str">
         <f>VLOOKUP(M31,helper!$K$2:$M$25,3)</f>
@@ -11027,7 +11032,7 @@
       </c>
       <c r="W31" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="6">
         <f t="shared" si="16"/>
@@ -11039,15 +11044,15 @@
       </c>
       <c r="Z31" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC31" s="6"/>
       <c r="AE31" s="7"/>
@@ -11060,11 +11065,11 @@
       </c>
       <c r="AL31" s="6" t="str">
         <f ca="1">AP23</f>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="AM31" s="85">
         <f ca="1">INT((VLOOKUP(AL31,$AD$1:$AM$24,10)-VLOOKUP(AL31,'tie breaker'!E8:F31,2)*10000)/10)+'tie breaker'!O8*1000</f>
-        <v>35104</v>
+        <v>45104</v>
       </c>
       <c r="AN31" s="6">
         <f t="shared" ca="1" si="41"/>
@@ -11072,15 +11077,15 @@
       </c>
       <c r="AO31" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP31" s="85" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>D2</v>
+        <v>E4</v>
       </c>
       <c r="AQ31" s="85" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="AS31" s="161" t="s">
         <v>79</v>
@@ -11143,11 +11148,15 @@
         <f>VLOOKUP(G32,helper!$K$2:$L$25,2)</f>
         <v>Tschechien</v>
       </c>
-      <c r="I32" s="156"/>
+      <c r="I32" s="156">
+        <v>0</v>
+      </c>
       <c r="J32" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="156"/>
+      <c r="K32" s="156">
+        <v>1</v>
+      </c>
       <c r="L32" s="155" t="str">
         <f>VLOOKUP(M32,helper!$K$2:$L$25,2)</f>
         <v>England</v>
@@ -11162,7 +11171,7 @@
       </c>
       <c r="P32" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="10"/>
@@ -11174,7 +11183,7 @@
       </c>
       <c r="S32" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="6">
         <f t="shared" si="13"/>
@@ -11182,7 +11191,7 @@
       </c>
       <c r="U32" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="7" t="str">
         <f>VLOOKUP(M32,helper!$K$2:$M$25,3)</f>
@@ -11190,11 +11199,11 @@
       </c>
       <c r="W32" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="6">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="6">
         <f t="shared" si="17"/>
@@ -11206,7 +11215,7 @@
       </c>
       <c r="AA32" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="6">
         <f t="shared" si="20"/>
@@ -11313,11 +11322,15 @@
         <f>VLOOKUP(G33,helper!$K$2:$L$25,2)</f>
         <v>Slowakei</v>
       </c>
-      <c r="I33" s="156"/>
+      <c r="I33" s="156">
+        <v>0</v>
+      </c>
       <c r="J33" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="156"/>
+      <c r="K33" s="156">
+        <v>5</v>
+      </c>
       <c r="L33" s="155" t="str">
         <f>VLOOKUP(M33,helper!$K$2:$L$25,2)</f>
         <v>Spanien</v>
@@ -11332,7 +11345,7 @@
       </c>
       <c r="P33" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="10"/>
@@ -11344,7 +11357,7 @@
       </c>
       <c r="S33" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="6">
         <f t="shared" si="13"/>
@@ -11352,7 +11365,7 @@
       </c>
       <c r="U33" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V33" s="7" t="str">
         <f>VLOOKUP(M33,helper!$K$2:$M$25,3)</f>
@@ -11360,11 +11373,11 @@
       </c>
       <c r="W33" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="6">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="6">
         <f t="shared" si="17"/>
@@ -11376,7 +11389,7 @@
       </c>
       <c r="AA33" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB33" s="6">
         <f t="shared" si="20"/>
@@ -11393,7 +11406,7 @@
       <c r="AL33" s="8"/>
       <c r="AM33" s="6" t="str">
         <f ca="1">LEFT(AQ26,1)&amp;LEFT(AQ27,1)&amp;LEFT(AQ28,1)&amp;LEFT(AQ29,1)&amp;LEFT(AQ30,1)&amp;LEFT(AQ31,1)</f>
-        <v>ABCF</v>
+        <v>ACDF</v>
       </c>
       <c r="AO33" s="7"/>
       <c r="AP33" s="8"/>
@@ -11407,15 +11420,15 @@
       </c>
       <c r="AT33" s="24" t="str">
         <f ca="1">VLOOKUP(AS33,helper!$G$2:$I$25,2)&amp;IF(SUM(AU$33:AU$36)=12,"",helper!$U$2)</f>
-        <v>Schweden ᵛ</v>
+        <v>Schweden</v>
       </c>
       <c r="AU33" s="74">
         <f ca="1">VLOOKUP($AS33,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV33" s="74">
         <f ca="1">VLOOKUP($AS33,$AD$1:$AL$24,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW33" s="74">
         <f ca="1">VLOOKUP($AS33,$AD$1:$AL$24,4)</f>
@@ -11428,24 +11441,24 @@
       <c r="AY33" s="88"/>
       <c r="AZ33" s="74">
         <f ca="1">VLOOKUP($AS33,$AD$1:$AL$24,6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA33" s="74" t="s">
         <v>8</v>
       </c>
       <c r="BB33" s="74">
         <f ca="1">VLOOKUP($AS33,$AD$1:$AL$24,7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC33" s="88"/>
       <c r="BD33" s="75">
         <f ca="1">VLOOKUP($AS33,$AD$1:$AL$24,8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE33" s="91"/>
       <c r="BF33" s="76">
         <f ca="1">VLOOKUP($AS33,$AD$1:$AL$24,9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH33" s="21" t="str">
         <f ca="1">AP21</f>
@@ -11453,11 +11466,11 @@
       </c>
       <c r="BI33" s="24" t="str">
         <f ca="1">VLOOKUP(BH33,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$33:BJ$36)=12,"",helper!$U$2)</f>
-        <v>Frankreich ᵛ</v>
+        <v>Frankreich</v>
       </c>
       <c r="BJ33" s="74">
         <f ca="1">VLOOKUP($BH33,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK33" s="74">
         <f ca="1">VLOOKUP($BH33,$AD$1:$AL$24,3)</f>
@@ -11465,7 +11478,7 @@
       </c>
       <c r="BL33" s="74">
         <f ca="1">VLOOKUP($BH33,$AD$1:$AL$24,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM33" s="74">
         <f ca="1">VLOOKUP($BH33,$AD$1:$AL$24,5)</f>
@@ -11474,14 +11487,14 @@
       <c r="BN33" s="88"/>
       <c r="BO33" s="74">
         <f ca="1">VLOOKUP($BH33,$AD$1:$AL$24,6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP33" s="74" t="s">
         <v>8</v>
       </c>
       <c r="BQ33" s="74">
         <f ca="1">VLOOKUP($BH33,$AD$1:$AL$24,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR33" s="88"/>
       <c r="BS33" s="75">
@@ -11491,7 +11504,7 @@
       <c r="BT33" s="91"/>
       <c r="BU33" s="76">
         <f ca="1">VLOOKUP($BH33,$AD$1:$AL$24,9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:73" ht="18.75" x14ac:dyDescent="0.25">
@@ -11522,11 +11535,15 @@
         <f>VLOOKUP(G34,helper!$K$2:$L$25,2)</f>
         <v>Schweden</v>
       </c>
-      <c r="I34" s="156"/>
+      <c r="I34" s="156">
+        <v>3</v>
+      </c>
       <c r="J34" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="156"/>
+      <c r="K34" s="156">
+        <v>2</v>
+      </c>
       <c r="L34" s="155" t="str">
         <f>VLOOKUP(M34,helper!$K$2:$L$25,2)</f>
         <v>Polen</v>
@@ -11541,11 +11558,11 @@
       </c>
       <c r="P34" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="11"/>
@@ -11557,11 +11574,11 @@
       </c>
       <c r="T34" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" s="7" t="str">
         <f>VLOOKUP(M34,helper!$K$2:$M$25,3)</f>
@@ -11569,7 +11586,7 @@
       </c>
       <c r="W34" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="6">
         <f t="shared" si="16"/>
@@ -11581,15 +11598,15 @@
       </c>
       <c r="Z34" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC34" s="6"/>
       <c r="AD34" s="7"/>
@@ -11605,15 +11622,15 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="21" t="str">
         <f ca="1">AP18</f>
-        <v>E4</v>
+        <v>E1</v>
       </c>
       <c r="AT34" s="24" t="str">
         <f ca="1">VLOOKUP(AS34,helper!$G$2:$I$25,2)&amp;IF(SUM(AU$33:AU$36)=12,"",helper!$U$2)</f>
-        <v>Slowakei ᵛ</v>
+        <v>Spanien</v>
       </c>
       <c r="AU34" s="74">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV34" s="74">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,3)</f>
@@ -11621,45 +11638,45 @@
       </c>
       <c r="AW34" s="74">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX34" s="74">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="88"/>
       <c r="AZ34" s="74">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,6)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA34" s="74" t="s">
         <v>8</v>
       </c>
       <c r="BB34" s="74">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC34" s="88"/>
       <c r="BD34" s="75">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE34" s="91"/>
       <c r="BF34" s="76">
         <f ca="1">VLOOKUP($AS34,$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH34" s="21" t="str">
         <f ca="1">AP22</f>
-        <v>F2</v>
+        <v>F4</v>
       </c>
       <c r="BI34" s="24" t="str">
         <f ca="1">VLOOKUP(BH34,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$33:BJ$36)=12,"",helper!$U$2)</f>
-        <v>Portugal ᵛ</v>
+        <v>Deutschland</v>
       </c>
       <c r="BJ34" s="74">
         <f ca="1">VLOOKUP($BH34,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK34" s="74">
         <f ca="1">VLOOKUP($BH34,$AD$1:$AL$24,3)</f>
@@ -11667,7 +11684,7 @@
       </c>
       <c r="BL34" s="74">
         <f ca="1">VLOOKUP($BH34,$AD$1:$AL$24,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM34" s="74">
         <f ca="1">VLOOKUP($BH34,$AD$1:$AL$24,5)</f>
@@ -11676,14 +11693,14 @@
       <c r="BN34" s="88"/>
       <c r="BO34" s="74">
         <f ca="1">VLOOKUP($BH34,$AD$1:$AL$24,6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP34" s="74" t="s">
         <v>8</v>
       </c>
       <c r="BQ34" s="74">
         <f ca="1">VLOOKUP($BH34,$AD$1:$AL$24,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR34" s="88"/>
       <c r="BS34" s="75">
@@ -11693,7 +11710,7 @@
       <c r="BT34" s="91"/>
       <c r="BU34" s="76">
         <f ca="1">VLOOKUP($BH34,$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:73" ht="18.75" x14ac:dyDescent="0.25">
@@ -11724,11 +11741,15 @@
         <f>VLOOKUP(G35,helper!$K$2:$L$25,2)</f>
         <v>Portugal</v>
       </c>
-      <c r="I35" s="156"/>
+      <c r="I35" s="156">
+        <v>2</v>
+      </c>
       <c r="J35" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="156"/>
+      <c r="K35" s="156">
+        <v>2</v>
+      </c>
       <c r="L35" s="155" t="str">
         <f>VLOOKUP(M35,helper!$K$2:$L$25,2)</f>
         <v>Frankreich</v>
@@ -11743,7 +11764,7 @@
       </c>
       <c r="P35" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="10"/>
@@ -11751,7 +11772,7 @@
       </c>
       <c r="R35" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="6">
         <f t="shared" si="12"/>
@@ -11759,11 +11780,11 @@
       </c>
       <c r="T35" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" s="7" t="str">
         <f>VLOOKUP(M35,helper!$K$2:$M$25,3)</f>
@@ -11771,7 +11792,7 @@
       </c>
       <c r="W35" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="6">
         <f t="shared" si="16"/>
@@ -11779,7 +11800,7 @@
       </c>
       <c r="Y35" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="6">
         <f t="shared" si="18"/>
@@ -11787,11 +11808,11 @@
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC35" s="6"/>
       <c r="AD35" s="7"/>
@@ -11807,61 +11828,61 @@
       <c r="AQ35" s="8"/>
       <c r="AS35" s="22" t="str">
         <f ca="1">AP19</f>
-        <v>E1</v>
+        <v>E4</v>
       </c>
       <c r="AT35" s="32" t="str">
         <f ca="1">VLOOKUP(AS35,helper!$G$2:$I$25,2)&amp;IF(SUM(AU$33:AU$36)=12,"",helper!$U$2)</f>
-        <v>Spanien ᵛ</v>
+        <v>Slowakei</v>
       </c>
       <c r="AU35" s="72">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV35" s="72">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW35" s="72">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="72">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY35" s="89"/>
       <c r="AZ35" s="72">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA35" s="72" t="s">
         <v>8</v>
       </c>
       <c r="BB35" s="72">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC35" s="89"/>
       <c r="BD35" s="73">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,8)</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BE35" s="92"/>
       <c r="BF35" s="86">
         <f ca="1">VLOOKUP($AS35,$AD$1:$AL$24,9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH35" s="22" t="str">
         <f ca="1">AP23</f>
-        <v>F4</v>
+        <v>F2</v>
       </c>
       <c r="BI35" s="32" t="str">
         <f ca="1">VLOOKUP(BH35,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$33:BJ$36)=12,"",helper!$U$2)</f>
-        <v>Deutschland ᵛ</v>
+        <v>Portugal</v>
       </c>
       <c r="BJ35" s="72">
         <f ca="1">VLOOKUP($BH35,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK35" s="72">
         <f ca="1">VLOOKUP($BH35,$AD$1:$AL$24,3)</f>
@@ -11869,7 +11890,7 @@
       </c>
       <c r="BL35" s="72">
         <f ca="1">VLOOKUP($BH35,$AD$1:$AL$24,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM35" s="72">
         <f ca="1">VLOOKUP($BH35,$AD$1:$AL$24,5)</f>
@@ -11878,14 +11899,14 @@
       <c r="BN35" s="89"/>
       <c r="BO35" s="72">
         <f ca="1">VLOOKUP($BH35,$AD$1:$AL$24,6)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BP35" s="72" t="s">
         <v>8</v>
       </c>
       <c r="BQ35" s="72">
         <f ca="1">VLOOKUP($BH35,$AD$1:$AL$24,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BR35" s="89"/>
       <c r="BS35" s="73">
@@ -11895,7 +11916,7 @@
       <c r="BT35" s="92"/>
       <c r="BU35" s="86">
         <f ca="1">VLOOKUP($BH35,$AD$1:$AL$24,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:73" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -11926,11 +11947,15 @@
         <f>VLOOKUP(G36,helper!$K$2:$L$25,2)</f>
         <v>Deutschland</v>
       </c>
-      <c r="I36" s="156"/>
+      <c r="I36" s="156">
+        <v>2</v>
+      </c>
       <c r="J36" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="156"/>
+      <c r="K36" s="156">
+        <v>2</v>
+      </c>
       <c r="L36" s="155" t="str">
         <f>VLOOKUP(M36,helper!$K$2:$L$25,2)</f>
         <v>Ungarn</v>
@@ -11945,7 +11970,7 @@
       </c>
       <c r="P36" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="10"/>
@@ -11953,7 +11978,7 @@
       </c>
       <c r="R36" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="6">
         <f t="shared" si="12"/>
@@ -11961,11 +11986,11 @@
       </c>
       <c r="T36" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36" s="7" t="str">
         <f>VLOOKUP(M36,helper!$K$2:$M$25,3)</f>
@@ -11973,7 +11998,7 @@
       </c>
       <c r="W36" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="6">
         <f t="shared" si="16"/>
@@ -11981,7 +12006,7 @@
       </c>
       <c r="Y36" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="6">
         <f t="shared" si="18"/>
@@ -11989,11 +12014,11 @@
       </c>
       <c r="AA36" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB36" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC36" s="6"/>
       <c r="AD36" s="7"/>
@@ -12013,11 +12038,11 @@
       </c>
       <c r="AT36" s="33" t="str">
         <f ca="1">VLOOKUP(AS36,helper!$G$2:$I$25,2)&amp;IF(SUM(AU$33:AU$36)=12,"",helper!$U$2)</f>
-        <v>Polen ᵛ</v>
+        <v>Polen</v>
       </c>
       <c r="AU36" s="77">
         <f ca="1">VLOOKUP($AS36,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV36" s="77">
         <f ca="1">VLOOKUP($AS36,$AD$1:$AL$24,3)</f>
@@ -12029,24 +12054,24 @@
       </c>
       <c r="AX36" s="77">
         <f ca="1">VLOOKUP($AS36,$AD$1:$AL$24,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY36" s="90"/>
       <c r="AZ36" s="77">
         <f ca="1">VLOOKUP($AS36,$AD$1:$AL$24,6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA36" s="77" t="s">
         <v>8</v>
       </c>
       <c r="BB36" s="77">
         <f ca="1">VLOOKUP($AS36,$AD$1:$AL$24,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC36" s="90"/>
       <c r="BD36" s="78">
         <f ca="1">VLOOKUP($AS36,$AD$1:$AL$24,8)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="BE36" s="93"/>
       <c r="BF36" s="87">
@@ -12059,11 +12084,11 @@
       </c>
       <c r="BI36" s="33" t="str">
         <f ca="1">VLOOKUP(BH36,helper!$G$2:$I$25,2)&amp;IF(SUM(BJ$33:BJ$36)=12,"",helper!$U$2)</f>
-        <v>Ungarn ᵛ</v>
+        <v>Ungarn</v>
       </c>
       <c r="BJ36" s="77">
         <f ca="1">VLOOKUP($BH36,$AD$1:$AL$24,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK36" s="77">
         <f ca="1">VLOOKUP($BH36,$AD$1:$AL$24,3)</f>
@@ -12071,7 +12096,7 @@
       </c>
       <c r="BL36" s="77">
         <f ca="1">VLOOKUP($BH36,$AD$1:$AL$24,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM36" s="77">
         <f ca="1">VLOOKUP($BH36,$AD$1:$AL$24,5)</f>
@@ -12080,14 +12105,14 @@
       <c r="BN36" s="90"/>
       <c r="BO36" s="77">
         <f ca="1">VLOOKUP($BH36,$AD$1:$AL$24,6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP36" s="77" t="s">
         <v>8</v>
       </c>
       <c r="BQ36" s="77">
         <f ca="1">VLOOKUP($BH36,$AD$1:$AL$24,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BR36" s="90"/>
       <c r="BS36" s="78">
@@ -12097,11 +12122,11 @@
       <c r="BT36" s="93"/>
       <c r="BU36" s="87">
         <f ca="1">VLOOKUP($BH36,$AD$1:$AL$24,9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="BW1:BX12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BW1:BX12">
     <sortCondition ref="BW1:BW12"/>
   </sortState>
   <mergeCells count="8">
@@ -12178,11 +12203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -12333,10 +12358,10 @@
       <c r="J4" s="153"/>
       <c r="K4" s="147" t="str">
         <f ca="1">VLOOKUP(L4,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Schweiz ᵛ</v>
+        <v>Tschechien</v>
       </c>
       <c r="L4" s="148" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M4" s="82"/>
       <c r="N4" s="130" t="s">
@@ -12374,10 +12399,10 @@
       <c r="J5" s="153"/>
       <c r="K5" s="147" t="str">
         <f ca="1">VLOOKUP(L5,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Deutschland ᵛ</v>
+        <v>Portugal</v>
       </c>
       <c r="L5" s="148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M5" s="82"/>
     </row>
@@ -12399,11 +12424,11 @@
         <v>Parken</v>
       </c>
       <c r="F6" s="150" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G6" s="151" t="str">
         <f ca="1">VLOOKUP(F6,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>England ᵛ</v>
+        <v>Kroatien</v>
       </c>
       <c r="H6" s="153"/>
       <c r="I6" s="149" t="s">
@@ -12412,7 +12437,7 @@
       <c r="J6" s="153"/>
       <c r="K6" s="147" t="str">
         <f ca="1">VLOOKUP(L6,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Slowakei ᵛ</v>
+        <v>Spanien</v>
       </c>
       <c r="L6" s="148" t="s">
         <v>205</v>
@@ -12441,7 +12466,7 @@
       </c>
       <c r="G7" s="151" t="str">
         <f ca="1">VLOOKUP(F7,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Frankreich ᵛ</v>
+        <v>Frankreich</v>
       </c>
       <c r="H7" s="153"/>
       <c r="I7" s="149" t="s">
@@ -12450,10 +12475,10 @@
       <c r="J7" s="153"/>
       <c r="K7" s="147" t="str">
         <f ca="1">VLOOKUP(L7,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Finnland ᵛ</v>
+        <v>Schweiz</v>
       </c>
       <c r="L7" s="148" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M7" s="82"/>
     </row>
@@ -12479,7 +12504,7 @@
       </c>
       <c r="G8" s="151" t="str">
         <f ca="1">VLOOKUP(F8,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Tschechien ᵛ</v>
+        <v>England</v>
       </c>
       <c r="H8" s="153"/>
       <c r="I8" s="149" t="s">
@@ -12488,7 +12513,7 @@
       <c r="J8" s="153"/>
       <c r="K8" s="147" t="str">
         <f ca="1">VLOOKUP(L8,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Portugal ᵛ</v>
+        <v>Deutschland</v>
       </c>
       <c r="L8" s="148" t="s">
         <v>207</v>
@@ -12517,7 +12542,7 @@
       </c>
       <c r="G9" s="143" t="str">
         <f ca="1">VLOOKUP(F9,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Schweden ᵛ</v>
+        <v>Schweden</v>
       </c>
       <c r="H9" s="152"/>
       <c r="I9" s="144" t="s">
@@ -12526,10 +12551,10 @@
       <c r="J9" s="152"/>
       <c r="K9" s="147" t="str">
         <f ca="1">VLOOKUP(L9,Gruppenphase!$BW$1:$BX$16,2)</f>
-        <v>Ukraine ᵛ</v>
+        <v>Ukraine</v>
       </c>
       <c r="L9" s="146" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M9" s="82"/>
     </row>
@@ -13101,7 +13126,7 @@
     <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A1:J8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J8">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="5">
@@ -13117,7 +13142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">
@@ -13569,11 +13594,11 @@
       </c>
       <c r="AC5" s="61">
         <f>COUNT(F:F)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD5" s="61">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="62">
         <f>SUM(E:E)</f>
@@ -13581,11 +13606,11 @@
       </c>
       <c r="AF5" s="61">
         <f>SUM(F:F)</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="AG5" s="63">
         <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
+        <v>3.25</v>
       </c>
       <c r="AK5" s="37"/>
     </row>
@@ -14089,11 +14114,11 @@
       </c>
       <c r="AC9" s="58">
         <f>COUNT(N:N)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD9" s="58">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="59">
         <f>SUM(M:M)</f>
@@ -14101,11 +14126,11 @@
       </c>
       <c r="AF9" s="58">
         <f>SUM(N:N)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG9" s="60">
         <f t="shared" si="1"/>
-        <v>1.25</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AK9" s="37"/>
     </row>
@@ -14219,11 +14244,11 @@
       </c>
       <c r="AC10" s="58">
         <f>COUNT(P:P)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD10" s="58">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="59">
         <f>SUM(O:O)</f>
@@ -14231,11 +14256,11 @@
       </c>
       <c r="AF10" s="58">
         <f>SUM(P:P)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AG10" s="60">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AK10" s="37"/>
     </row>
@@ -14349,11 +14374,11 @@
       </c>
       <c r="AC11" s="64">
         <f>COUNT(R:R)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD11" s="64">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="65">
         <f>SUM(Q:Q)</f>
@@ -14361,11 +14386,11 @@
       </c>
       <c r="AF11" s="64">
         <f>SUM(R:R)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG11" s="66">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AK11" s="37"/>
     </row>
@@ -14479,11 +14504,11 @@
       </c>
       <c r="AC12" s="47">
         <f>SUM(AC3:AC5)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AD12" s="47">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="48">
         <f>SUM(AE3:AE5)</f>
@@ -14491,11 +14516,11 @@
       </c>
       <c r="AF12" s="47">
         <f>SUM(AF3:AF5)</f>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AG12" s="49">
         <f t="shared" si="1"/>
-        <v>2.3666666666666667</v>
+        <v>2.6111111111111112</v>
       </c>
       <c r="AK12" s="37"/>
     </row>
@@ -15259,11 +15284,11 @@
       </c>
       <c r="AC18" s="50">
         <f>SUM(AC12,AC17)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AD18" s="51">
         <f t="shared" si="0"/>
-        <v>0.58823529411764708</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AE18" s="52">
         <f>SUM(AE12,AE17)</f>
@@ -15271,11 +15296,11 @@
       </c>
       <c r="AF18" s="50">
         <f t="shared" ref="AF18" si="2">SUM(AF12,AF17)</f>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AG18" s="53">
         <f t="shared" si="1"/>
-        <v>2.3666666666666667</v>
+        <v>2.6111111111111112</v>
       </c>
       <c r="AK18" s="37"/>
     </row>
@@ -16414,9 +16439,9 @@
         <f>IF(Gruppenphase!$B31=VALUE(RIGHT(Tore!E$2,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="37" t="str">
+      <c r="F33" s="37">
         <f>IF(OR(Gruppenphase!$P31=0,E33=0),"",ROUNDDOWN(SUM(Gruppenphase!$I31:$K31),0)*Tore!E33)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G33" s="37">
         <f>IF(Gruppenphase!$C31=RIGHT(Tore!G$2,1),1,0)</f>
@@ -16446,9 +16471,9 @@
         <f>IF(Gruppenphase!$C31=RIGHT(Tore!M$2,1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N33" s="37" t="str">
+      <c r="N33" s="37">
         <f>IF(OR(Gruppenphase!$P31=0,M33=0),"",ROUNDDOWN(SUM(Gruppenphase!$I31:$K31),0)*Tore!M33)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O33" s="37">
         <f>IF(Gruppenphase!$C31=RIGHT(Tore!O$2,1),1,0)</f>
@@ -16489,9 +16514,9 @@
         <f>IF(Gruppenphase!$B32=VALUE(RIGHT(Tore!E$2,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F34" s="37" t="str">
+      <c r="F34" s="37">
         <f>IF(OR(Gruppenphase!$P32=0,E34=0),"",ROUNDDOWN(SUM(Gruppenphase!$I32:$K32),0)*Tore!E34)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G34" s="37">
         <f>IF(Gruppenphase!$C32=RIGHT(Tore!G$2,1),1,0)</f>
@@ -16521,9 +16546,9 @@
         <f>IF(Gruppenphase!$C32=RIGHT(Tore!M$2,1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N34" s="37" t="str">
+      <c r="N34" s="37">
         <f>IF(OR(Gruppenphase!$P32=0,M34=0),"",ROUNDDOWN(SUM(Gruppenphase!$I32:$K32),0)*Tore!M34)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O34" s="37">
         <f>IF(Gruppenphase!$C32=RIGHT(Tore!O$2,1),1,0)</f>
@@ -16564,9 +16589,9 @@
         <f>IF(Gruppenphase!$B33=VALUE(RIGHT(Tore!E$2,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F35" s="37" t="str">
+      <c r="F35" s="37">
         <f>IF(OR(Gruppenphase!$P33=0,E35=0),"",ROUNDDOWN(SUM(Gruppenphase!$I33:$K33),0)*Tore!E35)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G35" s="37">
         <f>IF(Gruppenphase!$C33=RIGHT(Tore!G$2,1),1,0)</f>
@@ -16604,9 +16629,9 @@
         <f>IF(Gruppenphase!$C33=RIGHT(Tore!O$2,1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="P35" s="37" t="str">
+      <c r="P35" s="37">
         <f>IF(OR(Gruppenphase!$P33=0,O35=0),"",ROUNDDOWN(SUM(Gruppenphase!$I33:$K33),0)*Tore!O35)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q35" s="37">
         <f>IF(Gruppenphase!$C33=RIGHT(Tore!Q$2,1),1,0)</f>
@@ -16639,9 +16664,9 @@
         <f>IF(Gruppenphase!$B34=VALUE(RIGHT(Tore!E$2,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="37" t="str">
+      <c r="F36" s="37">
         <f>IF(OR(Gruppenphase!$P34=0,E36=0),"",ROUNDDOWN(SUM(Gruppenphase!$I34:$K34),0)*Tore!E36)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="G36" s="37">
         <f>IF(Gruppenphase!$C34=RIGHT(Tore!G$2,1),1,0)</f>
@@ -16679,9 +16704,9 @@
         <f>IF(Gruppenphase!$C34=RIGHT(Tore!O$2,1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="P36" s="37" t="str">
+      <c r="P36" s="37">
         <f>IF(OR(Gruppenphase!$P34=0,O36=0),"",ROUNDDOWN(SUM(Gruppenphase!$I34:$K34),0)*Tore!O36)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q36" s="37">
         <f>IF(Gruppenphase!$C34=RIGHT(Tore!Q$2,1),1,0)</f>
@@ -16714,9 +16739,9 @@
         <f>IF(Gruppenphase!$B35=VALUE(RIGHT(Tore!E$2,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F37" s="37" t="str">
+      <c r="F37" s="37">
         <f>IF(OR(Gruppenphase!$P35=0,E37=0),"",ROUNDDOWN(SUM(Gruppenphase!$I35:$K35),0)*Tore!E37)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G37" s="37">
         <f>IF(Gruppenphase!$C35=RIGHT(Tore!G$2,1),1,0)</f>
@@ -16762,9 +16787,9 @@
         <f>IF(Gruppenphase!$C35=RIGHT(Tore!Q$2,1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="R37" s="37" t="str">
+      <c r="R37" s="37">
         <f>IF(OR(Gruppenphase!$P35=0,Q37=0),"",ROUNDDOWN(SUM(Gruppenphase!$I35:$K35),0)*Tore!Q37)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AK37" s="37"/>
     </row>
@@ -16789,9 +16814,9 @@
         <f>IF(Gruppenphase!$B36=VALUE(RIGHT(Tore!E$2,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F38" s="37" t="str">
+      <c r="F38" s="37">
         <f>IF(OR(Gruppenphase!$P36=0,E38=0),"",ROUNDDOWN(SUM(Gruppenphase!$I36:$K36),0)*Tore!E38)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G38" s="37">
         <f>IF(Gruppenphase!$C36=RIGHT(Tore!G$2,1),1,0)</f>
@@ -16837,9 +16862,9 @@
         <f>IF(Gruppenphase!$C36=RIGHT(Tore!Q$2,1),1,0)</f>
         <v>1</v>
       </c>
-      <c r="R38" s="37" t="str">
+      <c r="R38" s="37">
         <f>IF(OR(Gruppenphase!$P36=0,Q38=0),"",ROUNDDOWN(SUM(Gruppenphase!$I36:$K36),0)*Tore!Q38)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AK38" s="37"/>
     </row>
